--- a/LubanTools/DesignerConfigs/Datas/Task_任务表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Task_任务表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kddh\ss-cfg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3DKDDH\sky3d-cfg\LubanTools\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022755C4-3E15-4582-A7D4-56D8C59EE02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7780FD-3F3B-4064-8D36-03D86248EC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,30 +1453,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,s</t>
-    </r>
+    <t>c,s</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2178,7 +2155,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
